--- a/biology/Zoologie/Charinus/Charinus.xlsx
+++ b/biology/Zoologie/Charinus/Charinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus est un genre d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Afrique et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Afrique et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Whip spiders of the World (version 1.0)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Whip spiders of the World (version 1.0) :
 Charinus acaraje Pinto-da-Rocha, Machado &amp; Weygoldt, 2002
 Charinus acosta (Quintero, 1983)
 Charinus africanus Hansen, 1921
@@ -646,8 +662,8 @@
 Charinus tingomaria Ballón-Estacio &amp; Armas, 2019
 Charinus una Miranda, Giupponi, Prendini &amp; Scharff, 2021
 Charinus yanatile Palomino-Cardenas, Armas &amp; Castillo-Espinoza, 2022
-Charinus victori a été placée en synonymie avec Charinus aguayoi par Armas en 2017[3].
-Charinus abbatei, Charinus bengalensis, Charinus dhofarensis, Charinus ioanniticus, Charinus israelensis, Charinus omanensis, Charinus pakistanus, Charinus seychellarum, Charinus socotranus et Charinus stygochthobius ont été placées dans le genre Sarax par Miranda, Giupponi, Prendini et Scharff en 2021[1].
+Charinus victori a été placée en synonymie avec Charinus aguayoi par Armas en 2017.
+Charinus abbatei, Charinus bengalensis, Charinus dhofarensis, Charinus ioanniticus, Charinus israelensis, Charinus omanensis, Charinus pakistanus, Charinus seychellarum, Charinus socotranus et Charinus stygochthobius ont été placées dans le genre Sarax par Miranda, Giupponi, Prendini et Scharff en 2021.
 </t>
         </is>
       </c>
@@ -676,13 +692,15 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Simon en 1892 dans les Tarantulidae.
-Enantiosarax[4] a été placé en synonymie par Quintero en 1983[5].
-Speleophrynus[6] a été placé en synonymie par Delle Cave en 1986[7].
-Oligacanthophrynus[8] a été placé en synonymie par Weygoldt en 1998[9].
-Tricharinus[10] a été placé en synonymie par Weygoldt en 2000[11].
+Enantiosarax a été placé en synonymie par Quintero en 1983.
+Speleophrynus a été placé en synonymie par Delle Cave en 1986.
+Oligacanthophrynus a été placé en synonymie par Weygoldt en 1998.
+Tricharinus a été placé en synonymie par Weygoldt en 2000.
 </t>
         </is>
       </c>
@@ -711,7 +729,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1892 : « Arachnides. Étude sur les Arthropodes cavernicoles de île Luzon, Voyage de M. E. Simon aux îles Philippines (Mars et avril 1890). » Annales de la Société Entomologique de France, vol. 61, p. 35–52 (texte intégral).</t>
         </is>
